--- a/new.xlsx
+++ b/new.xlsx
@@ -17,13 +17,28 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="4">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <i val="1"/>
+      <color rgb="00FF0000"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <strike val="1"/>
+      <color rgb="00CC33FF"/>
+    </font>
+    <font>
+      <color rgb="000000FF"/>
+      <sz val="20"/>
+      <u val="double"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +49,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +57,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -122,174 +146,6 @@
     </indexedColors>
   </colors>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <style val="20"/>
-  <chart>
-    <title>
-      <tx>
-        <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:t>성적표</a:t>
-            </a:r>
-          </a:p>
-        </rich>
-      </tx>
-    </title>
-    <plotArea>
-      <lineChart>
-        <grouping val="standard"/>
-        <ser>
-          <idx val="0"/>
-          <order val="0"/>
-          <tx>
-            <strRef>
-              <f>'Sheet'!B1</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <val>
-            <numRef>
-              <f>'Sheet'!$B$2:$B$11</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="1"/>
-          <order val="1"/>
-          <tx>
-            <strRef>
-              <f>'Sheet'!C1</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <val>
-            <numRef>
-              <f>'Sheet'!$C$2:$C$11</f>
-            </numRef>
-          </val>
-        </ser>
-        <axId val="10"/>
-        <axId val="100"/>
-      </lineChart>
-      <catAx>
-        <axId val="10"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>번호</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="100"/>
-        <lblOffset val="100"/>
-      </catAx>
-      <valAx>
-        <axId val="100"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>점수</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="10"/>
-      </valAx>
-    </plotArea>
-    <legend>
-      <legendPos val="r"/>
-    </legend>
-    <plotVisOnly val="1"/>
-    <dispBlanksAs val="gap"/>
-  </chart>
-</chartSpace>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>0</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="5400000" cy="2700000"/>
-    <graphicFrame>
-      <nvGraphicFramePr>
-        <cNvPr id="1" name="Chart 1"/>
-        <cNvGraphicFramePr/>
-      </nvGraphicFramePr>
-      <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </graphicFrame>
-    <clientData/>
-  </oneCellAnchor>
-</wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -588,19 +444,22 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="5" customWidth="1" min="1" max="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
+    <row r="1" ht="50" customHeight="1">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>#</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>English</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="3" t="inlineStr">
         <is>
           <t>Math</t>
         </is>
@@ -718,6 +577,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
 </file>
--- a/new.xlsx
+++ b/new.xlsx
@@ -17,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -26,30 +26,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
-      <i val="1"/>
       <color rgb="00FF0000"/>
     </font>
-    <font>
-      <name val="Arial"/>
-      <strike val="1"/>
-      <color rgb="00CC33FF"/>
-    </font>
-    <font>
-      <color rgb="000000FF"/>
-      <sz val="20"/>
-      <u val="double"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0000FF00"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -57,21 +50,18 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -444,134 +434,131 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="5" customWidth="1" min="1" max="1"/>
-  </cols>
   <sheetData>
-    <row r="1" ht="50" customHeight="1">
+    <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>#</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>English</t>
         </is>
       </c>
-      <c r="C1" s="3" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Math</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
+      <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2" s="2" t="n">
         <v>99</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2" s="1" t="n">
         <v>26</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
+      <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3" s="2" t="n">
         <v>96</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
+      <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4" s="2" t="n">
         <v>95</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
+      <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5" s="1" t="n">
         <v>50</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
+      <c r="A6" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6" s="1" t="n">
         <v>85</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
+      <c r="A7" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7" s="1" t="n">
         <v>44</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
+      <c r="A8" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8" s="1" t="n">
         <v>29</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
+      <c r="A9" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9" s="1" t="n">
         <v>82</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9" s="1" t="n">
         <v>11</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
+      <c r="A10" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10" s="1" t="n">
         <v>84</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
+      <c r="A11" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11" s="2" t="n">
         <v>97</v>
       </c>
     </row>

--- a/new.xlsx
+++ b/new.xlsx
@@ -17,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -25,21 +25,13 @@
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <color rgb="00FF0000"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0000FF00"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -54,14 +46,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -427,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,130 +422,24 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>#</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>English</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Math</t>
-        </is>
+      <c r="A1" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="n">
-        <v>99</v>
-      </c>
-      <c r="C2" s="1" t="n">
-        <v>26</v>
+      <c r="A2" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="C3" s="2" t="n">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="C4" s="2" t="n">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>50</v>
+      <c r="A3" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="C8" s="1" t="n">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="C9" s="1" t="n">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="C10" s="1" t="n">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="C11" s="2" t="n">
-        <v>97</v>
+      <c r="A6">
+        <f>SUM(A1:A3)</f>
+        <v/>
       </c>
     </row>
   </sheetData>

--- a/new.xlsx
+++ b/new.xlsx
@@ -1,34 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="350" yWindow="500" windowWidth="19440" windowHeight="8400"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
-      <name val="Calibri"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -47,80 +52,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -408,41 +346,37 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="n">
+    <row r="1" spans="1:1">
+      <c r="A1">
         <v>10</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="2" spans="1:1">
+      <c r="A2">
         <v>20</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
+    <row r="3" spans="1:1">
+      <c r="A3">
         <v>30</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6">
+    <row r="4" spans="1:1">
+      <c r="A4">
         <f>SUM(A1:A3)</f>
-        <v/>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/new.xlsx
+++ b/new.xlsx
@@ -1,39 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="350" yWindow="500" windowWidth="19440" windowHeight="8400"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -52,14 +47,111 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>2</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="285750" cy="285750"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -346,37 +438,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4">
-        <f>SUM(A1:A3)</f>
-        <v>60</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
 </file>